--- a/biology/Écologie/Diversité_gamma/Diversité_gamma.xlsx
+++ b/biology/Écologie/Diversité_gamma/Diversité_gamma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diversit%C3%A9_gamma</t>
+          <t>Diversité_gamma</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La diversité gamma est un concept fondamental en écologie qui décrit la variété totale des espèces présentes dans une région donnée ou un écosystème. Elle englobe l'ensemble des espèces qui occupent différents habitats et niches écologiques à l'intérieur de cette région. La diversité gamma est souvent étudiée à différentes échelles spatiales, allant des petits fragments d'habitats aux vastes paysages, afin de comprendre la répartition et l'abondance des espèces à travers des gradients environnementaux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diversit%C3%A9_gamma</t>
+          <t>Diversité_gamma</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mesure de la diversité gamma</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La diversité gamma peut être évaluée de différentes manières, en fonction des objectifs de l'étude et des données disponibles. Les mesures couramment utilisées incluent :
 Richesse spécifique : Il s'agit du nombre total d'espèces présentes dans une région donnée. Cette mesure fournit une indication de la diversité totale mais ne prend pas en compte la répartition spatiale des espèces.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diversit%C3%A9_gamma</t>
+          <t>Diversité_gamma</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Facteurs influençant la diversité gamma</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La diversité gamma est influencée par une multitude de facteurs, tant abiotiques que biotiques. Parmi les principaux facteurs abiotiques, on trouve :
 La variabilité environnementale : Les conditions environnementales telles que le climat, le relief, le type de sol et la disponibilité des ressources peuvent influencer la diversité gamma en déterminant les habitats disponibles et les niches écologiques.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diversit%C3%A9_gamma</t>
+          <t>Diversité_gamma</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Importance de la diversité gamma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La diversité gamma joue un rôle crucial dans le fonctionnement des écosystèmes et dans la résilience face aux perturbations environnementales. Une diversité élevée peut contribuer à une plus grande stabilité écosystémique en assurant le maintien de multiples fonctions écologiques telles que la pollinisation, la régulation des ravageurs et le recyclage des nutriments. De plus, elle peut également fournir une assurance contre l'extinction locale des espèces en permettant la colonisation et la réinstallation à partir d'autres habitats.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diversit%C3%A9_gamma</t>
+          <t>Diversité_gamma</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Conservation de la diversité gamma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La conservation de la diversité gamma est essentielle pour préserver la biodiversité à l'échelle régionale et mondiale. Les efforts de conservation doivent prendre en compte non seulement la protection des espèces individuelles, mais aussi la préservation et la restauration des habitats qui soutiennent une diversité gamma élevée. Cela nécessite une gestion intégrée des paysages, la création de corridors biologiques pour faciliter le déplacement des espèces, ainsi que la réduction des pressions anthropiques telles que la déforestation, la pollution et le changement climatique.
  Portail de l’écologie                     </t>
